--- a/document/data source_課程資料/普高/skill_curriculum/skill_curriculum_數學3B.xlsx
+++ b/document/data source_課程資料/普高/skill_curriculum/skill_curriculum_數學3B.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\math-master\document\data source_課程資料\普高\skill_curriculum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="規則邏輯相同 skill 盡量沿用 現在是數學3B 以上是數學" sheetId="1" r:id="rId4"/>
+    <sheet name="規則邏輯相同 skill 盡量沿用 現在是數學3B 以上是數學" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -250,17 +258,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -269,36 +285,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -488,20 +511,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -538,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -550,16 +578,16 @@
         <v>13</v>
       </c>
       <c r="G2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -567,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -579,16 +607,16 @@
         <v>15</v>
       </c>
       <c r="G3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -596,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -608,16 +636,16 @@
         <v>15</v>
       </c>
       <c r="G4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -625,7 +653,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -637,16 +665,16 @@
         <v>19</v>
       </c>
       <c r="G5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -654,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -666,16 +694,16 @@
         <v>21</v>
       </c>
       <c r="G6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -683,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -695,16 +723,16 @@
         <v>21</v>
       </c>
       <c r="G7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -712,7 +740,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -724,16 +752,16 @@
         <v>25</v>
       </c>
       <c r="G8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -741,7 +769,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -753,16 +781,16 @@
         <v>25</v>
       </c>
       <c r="G9" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -770,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -782,16 +810,16 @@
         <v>25</v>
       </c>
       <c r="G10" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H10" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -799,7 +827,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -811,16 +839,16 @@
         <v>25</v>
       </c>
       <c r="G11" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H11" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -828,7 +856,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -840,16 +868,16 @@
         <v>30</v>
       </c>
       <c r="G12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -857,7 +885,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -869,16 +897,16 @@
         <v>30</v>
       </c>
       <c r="G13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I13" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -886,7 +914,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -898,16 +926,16 @@
         <v>30</v>
       </c>
       <c r="G14" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I14" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -915,7 +943,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -927,16 +955,16 @@
         <v>35</v>
       </c>
       <c r="G15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -944,7 +972,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -956,16 +984,16 @@
         <v>35</v>
       </c>
       <c r="G16" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I16" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -973,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -985,16 +1013,16 @@
         <v>38</v>
       </c>
       <c r="G17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I17" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1002,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -1014,16 +1042,16 @@
         <v>38</v>
       </c>
       <c r="G18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I18" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -1031,7 +1059,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -1043,16 +1071,16 @@
         <v>38</v>
       </c>
       <c r="G19" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H19" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I19" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -1060,7 +1088,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -1072,16 +1100,16 @@
         <v>43</v>
       </c>
       <c r="G20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -1089,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -1101,16 +1129,16 @@
         <v>43</v>
       </c>
       <c r="G21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -1118,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -1130,16 +1158,16 @@
         <v>43</v>
       </c>
       <c r="G22" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H22" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I22" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1147,7 +1175,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -1159,16 +1187,16 @@
         <v>43</v>
       </c>
       <c r="G23" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H23" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="I23" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1176,7 +1204,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -1188,16 +1216,16 @@
         <v>43</v>
       </c>
       <c r="G24" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H24" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="I24" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1205,7 +1233,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -1217,16 +1245,16 @@
         <v>49</v>
       </c>
       <c r="G25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I25" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1234,7 +1262,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -1246,16 +1274,16 @@
         <v>49</v>
       </c>
       <c r="G26" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I26" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -1263,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -1275,16 +1303,16 @@
         <v>49</v>
       </c>
       <c r="G27" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H27" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I27" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -1292,7 +1320,7 @@
         <v>10</v>
       </c>
       <c r="C28" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -1304,16 +1332,16 @@
         <v>53</v>
       </c>
       <c r="G28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I28" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -1321,7 +1349,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -1333,16 +1361,16 @@
         <v>53</v>
       </c>
       <c r="G29" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H29" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I29" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -1350,7 +1378,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -1362,16 +1390,16 @@
         <v>57</v>
       </c>
       <c r="G30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I30" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -1379,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
@@ -1391,16 +1419,16 @@
         <v>57</v>
       </c>
       <c r="G31" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H31" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I31" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -1408,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -1420,16 +1448,16 @@
         <v>60</v>
       </c>
       <c r="G32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I32" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1437,7 +1465,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -1449,16 +1477,16 @@
         <v>62</v>
       </c>
       <c r="G33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I33" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>63</v>
       </c>
@@ -1466,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
@@ -1478,16 +1506,16 @@
         <v>62</v>
       </c>
       <c r="G34" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I34" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -1495,7 +1523,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
@@ -1507,16 +1535,16 @@
         <v>62</v>
       </c>
       <c r="G35" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H35" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I35" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
@@ -1524,7 +1552,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
@@ -1536,16 +1564,16 @@
         <v>66</v>
       </c>
       <c r="G36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I36" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
@@ -1553,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -1565,16 +1593,16 @@
         <v>66</v>
       </c>
       <c r="G37" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H37" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I37" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -1582,7 +1610,7 @@
         <v>10</v>
       </c>
       <c r="C38" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
@@ -1594,16 +1622,16 @@
         <v>70</v>
       </c>
       <c r="G38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I38" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
@@ -1611,7 +1639,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -1623,16 +1651,16 @@
         <v>72</v>
       </c>
       <c r="G39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I39" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
@@ -1640,7 +1668,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -1652,16 +1680,16 @@
         <v>72</v>
       </c>
       <c r="G40" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H40" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I40" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -1669,7 +1697,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
@@ -1681,16 +1709,16 @@
         <v>72</v>
       </c>
       <c r="G41" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H41" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I41" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>75</v>
       </c>
@@ -1698,7 +1726,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
@@ -1710,16 +1738,16 @@
         <v>72</v>
       </c>
       <c r="G42" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H42" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="I42" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
@@ -1727,7 +1755,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>11</v>
@@ -1739,16 +1767,18 @@
         <v>77</v>
       </c>
       <c r="G43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I43" s="1">
-        <v>1.0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>